--- a/utils/rebalance_tools/Blog Posts/February_2019.xlsx
+++ b/utils/rebalance_tools/Blog Posts/February_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoin\Desktop\Mike\Bletch\bcindex\utils\rebalance_tools\Blog Posts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B038DCBF-8F65-4483-86AB-17751493E7A9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB4C5A7-72CB-41A1-989E-59DA25E02BD7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10860" tabRatio="889" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="889" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sharpe" sheetId="1" r:id="rId1"/>
@@ -790,16 +790,31 @@
             <c:idx val="5"/>
             <c:invertIfNegative val="1"/>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-FE2C-423B-81EE-14D35782BCD9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
             <c:invertIfNegative val="1"/>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-FE2C-423B-81EE-14D35782BCD9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
             <c:invertIfNegative val="1"/>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-FE2C-423B-81EE-14D35782BCD9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -1065,6 +1080,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-FE2C-423B-81EE-14D35782BCD9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -1100,6 +1120,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-FE2C-423B-81EE-14D35782BCD9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -1135,6 +1160,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-FE2C-423B-81EE-14D35782BCD9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -1594,21 +1624,41 @@
             <c:idx val="0"/>
             <c:invertIfNegative val="1"/>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-F721-4958-9E8B-9EAF816AE8F5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:invertIfNegative val="1"/>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F721-4958-9E8B-9EAF816AE8F5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
             <c:invertIfNegative val="1"/>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-F721-4958-9E8B-9EAF816AE8F5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
             <c:invertIfNegative val="1"/>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F721-4958-9E8B-9EAF816AE8F5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -1834,6 +1884,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-F721-4958-9E8B-9EAF816AE8F5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1869,6 +1924,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-F721-4958-9E8B-9EAF816AE8F5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -1904,6 +1964,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-F721-4958-9E8B-9EAF816AE8F5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -1939,6 +2004,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-F721-4958-9E8B-9EAF816AE8F5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -5754,8 +5824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA72"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6202,7 +6272,7 @@
         <v>53</v>
       </c>
       <c r="D13" s="72" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="E13" s="64">
         <v>6.49664589154412E-2</v>
@@ -12101,7 +12171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -12563,7 +12633,7 @@
       <c r="U12" s="80"/>
       <c r="V12" s="80"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" ht="24">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>36</v>
